--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Efna1-Epha4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Efna1-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Epha4</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.265623769396</v>
+        <v>23.60223533333333</v>
       </c>
       <c r="H2">
-        <v>23.265623769396</v>
+        <v>70.80670599999999</v>
       </c>
       <c r="I2">
-        <v>0.8832239756487724</v>
+        <v>0.8824726436021215</v>
       </c>
       <c r="J2">
-        <v>0.8832239756487724</v>
+        <v>0.8824726436021214</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.48556067080587</v>
+        <v>7.839997333333334</v>
       </c>
       <c r="N2">
-        <v>7.48556067080587</v>
+        <v>23.519992</v>
       </c>
       <c r="O2">
-        <v>0.3910429977859032</v>
+        <v>0.3930770090432645</v>
       </c>
       <c r="P2">
-        <v>0.3910429977859032</v>
+        <v>0.3930770090432645</v>
       </c>
       <c r="Q2">
-        <v>174.1562382699569</v>
+        <v>185.0414620740391</v>
       </c>
       <c r="R2">
-        <v>174.1562382699569</v>
+        <v>1665.373158666352</v>
       </c>
       <c r="S2">
-        <v>0.3453785511540796</v>
+        <v>0.3468797073096246</v>
       </c>
       <c r="T2">
-        <v>0.3453785511540796</v>
+        <v>0.3468797073096246</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.265623769396</v>
+        <v>23.60223533333333</v>
       </c>
       <c r="H3">
-        <v>23.265623769396</v>
+        <v>70.80670599999999</v>
       </c>
       <c r="I3">
-        <v>0.8832239756487724</v>
+        <v>0.8824726436021215</v>
       </c>
       <c r="J3">
-        <v>0.8832239756487724</v>
+        <v>0.8824726436021214</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.1790713620364</v>
+        <v>11.57455166666667</v>
       </c>
       <c r="N3">
-        <v>11.1790713620364</v>
+        <v>34.723655</v>
       </c>
       <c r="O3">
-        <v>0.583990668183661</v>
+        <v>0.5803178185796234</v>
       </c>
       <c r="P3">
-        <v>0.583990668183661</v>
+        <v>0.5803178185796235</v>
       </c>
       <c r="Q3">
-        <v>260.0880684003682</v>
+        <v>273.1852923144922</v>
       </c>
       <c r="R3">
-        <v>260.0880684003682</v>
+        <v>2458.66763083043</v>
       </c>
       <c r="S3">
-        <v>0.5157945596949561</v>
+        <v>0.5121145994913766</v>
       </c>
       <c r="T3">
-        <v>0.5157945596949561</v>
+        <v>0.5121145994913766</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,60 +652,60 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.265623769396</v>
+        <v>23.60223533333333</v>
       </c>
       <c r="H4">
-        <v>23.265623769396</v>
+        <v>70.80670599999999</v>
       </c>
       <c r="I4">
-        <v>0.8832239756487724</v>
+        <v>0.8824726436021215</v>
       </c>
       <c r="J4">
-        <v>0.8832239756487724</v>
+        <v>0.8824726436021214</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.4779193315584</v>
+        <v>0.04482366666666667</v>
       </c>
       <c r="N4">
-        <v>0.4779193315584</v>
+        <v>0.134471</v>
       </c>
       <c r="O4">
-        <v>0.02496633403043571</v>
+        <v>0.002247341686300608</v>
       </c>
       <c r="P4">
-        <v>0.02496633403043571</v>
+        <v>0.002247341686300608</v>
       </c>
       <c r="Q4">
-        <v>11.11909136015896</v>
+        <v>1.057938729169555</v>
       </c>
       <c r="R4">
-        <v>11.11909136015896</v>
+        <v>9.521448562525999</v>
       </c>
       <c r="S4">
-        <v>0.02205086479973667</v>
+        <v>0.001983217558986948</v>
       </c>
       <c r="T4">
-        <v>0.02205086479973667</v>
+        <v>0.001983217558986947</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -711,55 +714,55 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.57126938261837</v>
+        <v>23.60223533333333</v>
       </c>
       <c r="H5">
-        <v>2.57126938261837</v>
+        <v>70.80670599999999</v>
       </c>
       <c r="I5">
-        <v>0.09761211601674237</v>
+        <v>0.8824726436021215</v>
       </c>
       <c r="J5">
-        <v>0.09761211601674237</v>
+        <v>0.8824726436021214</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.48556067080587</v>
+        <v>0.4858216666666667</v>
       </c>
       <c r="N5">
-        <v>7.48556067080587</v>
+        <v>1.457465</v>
       </c>
       <c r="O5">
-        <v>0.3910429977859032</v>
+        <v>0.02435783069081152</v>
       </c>
       <c r="P5">
-        <v>0.3910429977859032</v>
+        <v>0.02435783069081152</v>
       </c>
       <c r="Q5">
-        <v>19.24739296457536</v>
+        <v>11.46647730669889</v>
       </c>
       <c r="R5">
-        <v>19.24739296457536</v>
+        <v>103.19829576029</v>
       </c>
       <c r="S5">
-        <v>0.03817053446741232</v>
+        <v>0.02149511924213333</v>
       </c>
       <c r="T5">
-        <v>0.03817053446741232</v>
+        <v>0.02149511924213333</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,55 +776,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.57126938261837</v>
+        <v>2.633202</v>
       </c>
       <c r="H6">
-        <v>2.57126938261837</v>
+        <v>7.899606</v>
       </c>
       <c r="I6">
-        <v>0.09761211601674237</v>
+        <v>0.09845375648791208</v>
       </c>
       <c r="J6">
-        <v>0.09761211601674237</v>
+        <v>0.09845375648791205</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.1790713620364</v>
+        <v>7.839997333333334</v>
       </c>
       <c r="N6">
-        <v>11.1790713620364</v>
+        <v>23.519992</v>
       </c>
       <c r="O6">
-        <v>0.583990668183661</v>
+        <v>0.3930770090432645</v>
       </c>
       <c r="P6">
-        <v>0.583990668183661</v>
+        <v>0.3930770090432645</v>
       </c>
       <c r="Q6">
-        <v>28.74440391931003</v>
+        <v>20.644296658128</v>
       </c>
       <c r="R6">
-        <v>28.74440391931003</v>
+        <v>185.798669923152</v>
       </c>
       <c r="S6">
-        <v>0.05700456485543841</v>
+        <v>0.03869990812934238</v>
       </c>
       <c r="T6">
-        <v>0.05700456485543841</v>
+        <v>0.03869990812934236</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,60 +838,60 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.57126938261837</v>
+        <v>2.633202</v>
       </c>
       <c r="H7">
-        <v>2.57126938261837</v>
+        <v>7.899606</v>
       </c>
       <c r="I7">
-        <v>0.09761211601674237</v>
+        <v>0.09845375648791208</v>
       </c>
       <c r="J7">
-        <v>0.09761211601674237</v>
+        <v>0.09845375648791205</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4779193315584</v>
+        <v>11.57455166666667</v>
       </c>
       <c r="N7">
-        <v>0.4779193315584</v>
+        <v>34.723655</v>
       </c>
       <c r="O7">
-        <v>0.02496633403043571</v>
+        <v>0.5803178185796234</v>
       </c>
       <c r="P7">
-        <v>0.02496633403043571</v>
+        <v>0.5803178185796235</v>
       </c>
       <c r="Q7">
-        <v>1.228859344597551</v>
+        <v>30.47813259777</v>
       </c>
       <c r="R7">
-        <v>1.228859344597551</v>
+        <v>274.30319337993</v>
       </c>
       <c r="S7">
-        <v>0.002437016693891634</v>
+        <v>0.05713446919603458</v>
       </c>
       <c r="T7">
-        <v>0.002437016693891634</v>
+        <v>0.05713446919603457</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -897,60 +900,60 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.504809984278132</v>
+        <v>2.633202</v>
       </c>
       <c r="H8">
-        <v>0.504809984278132</v>
+        <v>7.899606</v>
       </c>
       <c r="I8">
-        <v>0.01916390833448524</v>
+        <v>0.09845375648791208</v>
       </c>
       <c r="J8">
-        <v>0.01916390833448524</v>
+        <v>0.09845375648791205</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>7.48556067080587</v>
+        <v>0.04482366666666667</v>
       </c>
       <c r="N8">
-        <v>7.48556067080587</v>
+        <v>0.134471</v>
       </c>
       <c r="O8">
-        <v>0.3910429977859032</v>
+        <v>0.002247341686300608</v>
       </c>
       <c r="P8">
-        <v>0.3910429977859032</v>
+        <v>0.002247341686300608</v>
       </c>
       <c r="Q8">
-        <v>3.778785764542514</v>
+        <v>0.118029768714</v>
       </c>
       <c r="R8">
-        <v>3.778785764542514</v>
+        <v>1.062267918426</v>
       </c>
       <c r="S8">
-        <v>0.007493912164411365</v>
+        <v>0.0002212592311281738</v>
       </c>
       <c r="T8">
-        <v>0.007493912164411365</v>
+        <v>0.0002212592311281737</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -959,55 +962,55 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.504809984278132</v>
+        <v>2.633202</v>
       </c>
       <c r="H9">
-        <v>0.504809984278132</v>
+        <v>7.899606</v>
       </c>
       <c r="I9">
-        <v>0.01916390833448524</v>
+        <v>0.09845375648791208</v>
       </c>
       <c r="J9">
-        <v>0.01916390833448524</v>
+        <v>0.09845375648791205</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.1790713620364</v>
+        <v>0.4858216666666667</v>
       </c>
       <c r="N9">
-        <v>11.1790713620364</v>
+        <v>1.457465</v>
       </c>
       <c r="O9">
-        <v>0.583990668183661</v>
+        <v>0.02435783069081152</v>
       </c>
       <c r="P9">
-        <v>0.583990668183661</v>
+        <v>0.02435783069081152</v>
       </c>
       <c r="Q9">
-        <v>5.64330683851371</v>
+        <v>1.27926658431</v>
       </c>
       <c r="R9">
-        <v>5.64330683851371</v>
+        <v>11.51339925879</v>
       </c>
       <c r="S9">
-        <v>0.01119154363326647</v>
+        <v>0.002398119931406948</v>
       </c>
       <c r="T9">
-        <v>0.01119154363326647</v>
+        <v>0.002398119931406948</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,55 +1024,241 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.5101343333333334</v>
+      </c>
+      <c r="H10">
+        <v>1.530403</v>
+      </c>
+      <c r="I10">
+        <v>0.01907359990996641</v>
+      </c>
+      <c r="J10">
+        <v>0.0190735999099664</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>7.839997333333334</v>
+      </c>
+      <c r="N10">
+        <v>23.519992</v>
+      </c>
+      <c r="O10">
+        <v>0.3930770090432645</v>
+      </c>
+      <c r="P10">
+        <v>0.3930770090432645</v>
+      </c>
+      <c r="Q10">
+        <v>3.999451812975111</v>
+      </c>
+      <c r="R10">
+        <v>35.995066316776</v>
+      </c>
+      <c r="S10">
+        <v>0.007497393604297475</v>
+      </c>
+      <c r="T10">
+        <v>0.007497393604297471</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.504809984278132</v>
-      </c>
-      <c r="H10">
-        <v>0.504809984278132</v>
-      </c>
-      <c r="I10">
-        <v>0.01916390833448524</v>
-      </c>
-      <c r="J10">
-        <v>0.01916390833448524</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.4779193315584</v>
-      </c>
-      <c r="N10">
-        <v>0.4779193315584</v>
-      </c>
-      <c r="O10">
-        <v>0.02496633403043571</v>
-      </c>
-      <c r="P10">
-        <v>0.02496633403043571</v>
-      </c>
-      <c r="Q10">
-        <v>0.2412584502502112</v>
-      </c>
-      <c r="R10">
-        <v>0.2412584502502112</v>
-      </c>
-      <c r="S10">
-        <v>0.0004784525368074094</v>
-      </c>
-      <c r="T10">
-        <v>0.0004784525368074094</v>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.5101343333333334</v>
+      </c>
+      <c r="H11">
+        <v>1.530403</v>
+      </c>
+      <c r="I11">
+        <v>0.01907359990996641</v>
+      </c>
+      <c r="J11">
+        <v>0.0190735999099664</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>11.57455166666667</v>
+      </c>
+      <c r="N11">
+        <v>34.723655</v>
+      </c>
+      <c r="O11">
+        <v>0.5803178185796234</v>
+      </c>
+      <c r="P11">
+        <v>0.5803178185796235</v>
+      </c>
+      <c r="Q11">
+        <v>5.904576198107223</v>
+      </c>
+      <c r="R11">
+        <v>53.141185782965</v>
+      </c>
+      <c r="S11">
+        <v>0.01106874989221221</v>
+      </c>
+      <c r="T11">
+        <v>0.0110687498922122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.5101343333333334</v>
+      </c>
+      <c r="H12">
+        <v>1.530403</v>
+      </c>
+      <c r="I12">
+        <v>0.01907359990996641</v>
+      </c>
+      <c r="J12">
+        <v>0.0190735999099664</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.04482366666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.134471</v>
+      </c>
+      <c r="O12">
+        <v>0.002247341686300608</v>
+      </c>
+      <c r="P12">
+        <v>0.002247341686300608</v>
+      </c>
+      <c r="Q12">
+        <v>0.02286609131255556</v>
+      </c>
+      <c r="R12">
+        <v>0.205794821813</v>
+      </c>
+      <c r="S12">
+        <v>4.286489618548703E-05</v>
+      </c>
+      <c r="T12">
+        <v>4.286489618548702E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.5101343333333334</v>
+      </c>
+      <c r="H13">
+        <v>1.530403</v>
+      </c>
+      <c r="I13">
+        <v>0.01907359990996641</v>
+      </c>
+      <c r="J13">
+        <v>0.0190735999099664</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.4858216666666667</v>
+      </c>
+      <c r="N13">
+        <v>1.457465</v>
+      </c>
+      <c r="O13">
+        <v>0.02435783069081152</v>
+      </c>
+      <c r="P13">
+        <v>0.02435783069081152</v>
+      </c>
+      <c r="Q13">
+        <v>0.2478343120438889</v>
+      </c>
+      <c r="R13">
+        <v>2.230508808395</v>
+      </c>
+      <c r="S13">
+        <v>0.0004645915172712396</v>
+      </c>
+      <c r="T13">
+        <v>0.0004645915172712394</v>
       </c>
     </row>
   </sheetData>
